--- a/BaoCaoHangNgay.xlsx
+++ b/BaoCaoHangNgay.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Ngày</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Làm báo cáo</t>
+  </si>
+  <si>
+    <t>sửa lỗi giới tính ở trang đăng nhập</t>
+  </si>
+  <si>
+    <t>sửa lỗi đăng nhập ko thành công</t>
+  </si>
+  <si>
+    <t>sửa lỗi trang more-info ko hiện thông tin gì</t>
+  </si>
+  <si>
+    <t>làm cái bấm vào điểm đến yêu thích ra list các tour</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,11 +168,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -173,6 +196,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +505,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,20 +604,30 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,7 +677,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaoCaoHangNgay.xlsx
+++ b/BaoCaoHangNgay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebDatTour\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="9816"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="22980" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +83,6 @@
     <t>Làm báo cáo</t>
   </si>
   <si>
-    <t>sửa lỗi giới tính ở trang đăng nhập</t>
-  </si>
-  <si>
     <t>sửa lỗi đăng nhập ko thành công</t>
   </si>
   <si>
@@ -88,12 +90,15 @@
   </si>
   <si>
     <t>làm cái bấm vào điểm đến yêu thích ra list các tour</t>
+  </si>
+  <si>
+    <t>sửa lỗi giới tính ở trang đăng ký</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,6 +215,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,18 +513,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -530,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -544,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -552,7 +560,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -566,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -574,7 +582,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -588,13 +596,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -605,68 +613,68 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -690,7 +698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -702,7 +710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
